--- a/ra_exploer/examples/jar test VHR.xlsx
+++ b/ra_exploer/examples/jar test VHR.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hobob.kang\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="材料資料片 TR2 VHR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'材料資料片 TR2 VHR'!$A$1:$L$41</definedName>
+  </definedNames>
+  <calcPr calcId="125725" iterate="1" iterateCount="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +27,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="51">
   <si>
     <t>TR2</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -242,17 +240,29 @@
   <si>
     <t>LCT-19-580</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAS-A-19-075  Innolux LCT-15-1098 723K1M sealant N and sealant L contact test</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>CAS-A-19-073  Innolux Mobile UB-FFS LC sealant N</t>
+  </si>
+  <si>
+    <t>191127 INL北廠 7142T 之液晶汚染性實驗結果報告([LC-0(ref)、LC-Y、LC-Z].pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -260,14 +270,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -280,7 +290,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -445,7 +455,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -483,7 +493,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -521,7 +531,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -559,7 +569,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -622,7 +632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -657,7 +667,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,28 +844,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="8.875" style="12" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="12"/>
     <col min="5" max="5" width="9.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="12" customWidth="1"/>
-    <col min="7" max="8" width="10.375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="12" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="12" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.625" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.875" style="12" customWidth="1"/>
@@ -863,7 +874,7 @@
     <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -901,7 +912,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="7" customFormat="1">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
@@ -933,10 +947,13 @@
         <v>60</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="7" customFormat="1">
+      <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
@@ -971,7 +988,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="7" customFormat="1">
+      <c r="A4" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1006,7 +1026,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="7" customFormat="1">
+      <c r="A5" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1041,7 +1064,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
+      <c r="A6" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B6" s="8" t="s">
         <v>27</v>
       </c>
@@ -1076,7 +1102,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
+      <c r="A7" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1111,7 +1140,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
+      <c r="A8" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
@@ -1146,7 +1178,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
+      <c r="A9" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1216,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="14" customFormat="1">
+      <c r="A10" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="B10" s="15" t="s">
         <v>33</v>
       </c>
@@ -1213,10 +1251,13 @@
         <v>60</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="14" customFormat="1">
+      <c r="A11" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="B11" s="15" t="s">
         <v>33</v>
       </c>
@@ -1251,7 +1292,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="14" customFormat="1">
+      <c r="A12" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
@@ -1286,7 +1330,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="14" customFormat="1">
+      <c r="A13" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="B13" s="15" t="s">
         <v>33</v>
       </c>
@@ -1321,7 +1368,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="14" customFormat="1">
+      <c r="A14" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="B14" s="15" t="s">
         <v>39</v>
       </c>
@@ -1356,7 +1406,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="14" customFormat="1">
+      <c r="A15" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="B15" s="15" t="s">
         <v>33</v>
       </c>
@@ -1391,7 +1444,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="14" customFormat="1">
+      <c r="A16" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="B16" s="15" t="s">
         <v>40</v>
       </c>
@@ -1426,7 +1482,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="14" customFormat="1">
+      <c r="A17" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="B17" s="15" t="s">
         <v>12</v>
       </c>
@@ -1461,7 +1520,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="14" customFormat="1">
+      <c r="A18" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="B18" s="15" t="s">
         <v>40</v>
       </c>
@@ -1496,7 +1558,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="14" customFormat="1">
+      <c r="A19" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
@@ -1531,7 +1596,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
+      <c r="A20" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B20" s="15" t="s">
         <v>33</v>
       </c>
@@ -1566,7 +1634,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
+      <c r="A21" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
@@ -1601,7 +1672,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
+      <c r="A22" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
@@ -1636,7 +1710,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
+      <c r="A23" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B23" s="15" t="s">
         <v>33</v>
       </c>
@@ -1671,7 +1748,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
+      <c r="A24" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B24" s="15" t="s">
         <v>33</v>
       </c>
@@ -1706,7 +1786,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
+      <c r="A25" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B25" s="15" t="s">
         <v>33</v>
       </c>
@@ -1741,7 +1824,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
+      <c r="A26" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B26" s="15" t="s">
         <v>40</v>
       </c>
@@ -1776,7 +1862,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
+      <c r="A27" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B27" s="15" t="s">
         <v>40</v>
       </c>
@@ -1811,7 +1900,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
+      <c r="A28" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B28" s="15" t="s">
         <v>40</v>
       </c>
@@ -1846,7 +1938,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
+      <c r="A29" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B29" s="15" t="s">
         <v>40</v>
       </c>
@@ -1881,7 +1976,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
+      <c r="A30" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
@@ -1913,10 +2011,13 @@
         <v>0.6</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1951,7 +2052,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
+      <c r="A32" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B32" s="8" t="s">
         <v>33</v>
       </c>
@@ -1986,7 +2090,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12">
+      <c r="A33" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B33" s="8" t="s">
         <v>33</v>
       </c>
@@ -2021,7 +2128,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12">
+      <c r="A34" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
@@ -2056,7 +2166,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12">
+      <c r="A35" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B35" s="10" t="s">
         <v>44</v>
       </c>
@@ -2091,7 +2204,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
+      <c r="A36" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B36" s="10" t="s">
         <v>44</v>
       </c>
@@ -2126,7 +2242,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12">
+      <c r="A37" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B37" s="10" t="s">
         <v>44</v>
       </c>
@@ -2161,7 +2280,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
+      <c r="A38" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B38" s="8" t="s">
         <v>45</v>
       </c>
@@ -2196,7 +2318,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12">
+      <c r="A39" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B39" s="8" t="s">
         <v>46</v>
       </c>
@@ -2231,7 +2356,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
+      <c r="A40" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B40" s="8" t="s">
         <v>45</v>
       </c>
@@ -2266,7 +2394,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
+      <c r="A41" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B41" s="8" t="s">
         <v>45</v>
       </c>
@@ -2302,6 +2433,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L41"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
